--- a/DATA/player_data.xlsx
+++ b/DATA/player_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">攻撃力 </t>
     <phoneticPr fontId="18"/>
@@ -137,6 +137,186 @@
   </si>
   <si>
     <t>ホーリーリザレクション</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>そよ風</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>陽炎</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>疾走</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>無影</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>電光石火</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>完全隠密</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>物覚え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラッキーヒット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラーニング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ねこばば</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大物狙い</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>盗賊の極意</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>呪文書を読み尽くし詠唱速度を早める[魔攻+10/詠唱速度加速]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上位魔法メテオバーストを覚える[魔攻+15/3方向攻撃]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身体を鍛え守りに特化する[防御+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岩石の如く身体を硬化させ防御面を強化する[防御+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>頑丈な鉄の盾を購入する[防御+10/HP+15]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鋼のごとく肉体改造を行い更に守りを鍛える[防御+10/HP+20]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>硬い意思を心に秘め怯むことすら抑制する[ひるまなくなる]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>手元の大盾で鉄壁の防御を展開する[回避が防御になりダメージ半減]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力で作られたバリアーを身体に貼る[魔防+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自らに肉体強化の魔法をかける[魔防+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>薬の知識を学びアイテムの効率を上げる[アイテム効果２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力を跳ね返す魔法を身体にかける[魔防+10/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを貼る[防御+10/魔防+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護を受け受けた傷を自動で回復する[2秒毎にHP3回復]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>そよ風のごとく軽やかな動きを身に付ける[移動速度1.1倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>相手に幻影を見せ、回避能力を高める[回避時無敵時間UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風を追い抜くスピードを身に付ける[移動速度1.25倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風の流れに身を任せ回避距離を伸ばす[回避距離UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>目にも止まらぬスピードで相手を翻弄する[移動速度1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>影に身を隠し、奇襲を仕掛ける術を学ぶ[4秒停止で透明/移動で解除3秒間与ダメUP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>物覚えがいい事を活かして経験値を上昇させる[獲得経験値+1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは体重を乗せて攻撃する術を知っている [攻撃+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの攻撃は流れるように放たれる [攻撃+5/攻撃速度Up]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの攻撃は非常に重く強靭だ [攻撃+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは攻撃だけでなく魔法も得意だ [攻撃+10/魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの肉体は攻守共に文句なしだ [攻撃+10/防御+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>傷ついた怒りがあなたを強くさせる[攻撃+10/被ダメ時攻撃1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの撃つ魔法は一般人よりも強い[魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は針のごとく鋭く飛んでいく [魔攻+5/発射速度UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大気中の魔力はあなたの味方になるだろう[魔攻+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1077,19 +1257,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="68.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1109,10 +1289,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1131,8 +1314,14 @@
       <c r="F2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1151,8 +1340,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +1366,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1191,8 +1392,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1418,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1231,8 +1444,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1251,8 +1470,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1271,8 +1496,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1291,8 +1522,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1311,8 +1548,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1331,8 +1574,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1351,8 +1600,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1371,8 +1626,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1652,14 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1411,8 +1678,14 @@
       <c r="F16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1431,8 +1704,14 @@
       <c r="F17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1730,14 @@
       <c r="F18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1471,8 +1756,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1491,35 +1782,464 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1.25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1.5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/player_data.xlsx
+++ b/DATA/player_data.xlsx
@@ -196,58 +196,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>呪文書を読み尽くし詠唱速度を早める[魔攻+10/詠唱速度加速]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>上位魔法メテオバーストを覚える[魔攻+15/3方向攻撃]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身体を鍛え守りに特化する[防御+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>岩石の如く身体を硬化させ防御面を強化する[防御+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>頑丈な鉄の盾を購入する[防御+10/HP+15]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鋼のごとく肉体改造を行い更に守りを鍛える[防御+10/HP+20]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>硬い意思を心に秘め怯むことすら抑制する[ひるまなくなる]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>手元の大盾で鉄壁の防御を展開する[回避が防御になりダメージ半減]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力で作られたバリアーを身体に貼る[魔防+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>自らに肉体強化の魔法をかける[魔防+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>薬の知識を学びアイテムの効率を上げる[アイテム効果２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力を跳ね返す魔法を身体にかける[魔防+10/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを貼る[防御+10/魔防+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>神の加護を受け受けた傷を自動で回復する[2秒毎にHP3回復]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -317,6 +265,58 @@
   </si>
   <si>
     <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上級魔法メテオバーストの習得は一人前の証だ[魔攻+15/3方向攻撃]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの肉体は常人よりも硬い[防御+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは鉄の盾の如く攻撃を受け止めることができる[防御+10/HP+15]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは皮膚を岩石の様に硬化させる事ができる[防御+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは鍛錬の末、鋼の肉体を手に入れた[防御+10/HP+20]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの硬い意思は怯むことすら抑制する[ひるまなくなる]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>騎士の大盾はどんな攻撃をも受け止める[回避が防御になりダメージ半減]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは魔力を跳ね返す魔法を身体にかけている[魔防+10/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自らに肉体強化の魔法をかけ強い肉体を手に入れた[魔防+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの身体を魔力の障壁が包んでいる[魔防+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの薬の知識はアイテムの効率を向上させる[アイテム効果２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを展開する[防御+10/魔防+10]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1968,7 +1968,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2020,7 +2020,7 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2072,7 +2072,7 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
